--- a/exp2.xlsx
+++ b/exp2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2114F237-51E3-4E1C-B900-ECC1FF81D625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{2114F237-51E3-4E1C-B900-ECC1FF81D625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{147DCF36-DD14-46A4-B64D-48310F0566E1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>bits</t>
   </si>
@@ -39,12 +39,24 @@
   <si>
     <t>Hold(ns)</t>
   </si>
+  <si>
+    <t>T(ns)</t>
+  </si>
+  <si>
+    <t>TEORICO</t>
+  </si>
+  <si>
+    <t>Practicos</t>
+  </si>
+  <si>
+    <t>f(Mhz)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,13 +64,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -70,13 +106,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -127,7 +173,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Frecuencia maxima(MHz) Vs bits</a:t>
+              <a:t>Frecuencia m</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t>á</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>xima practica(MHz) Vs bits</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1432,6 +1486,432 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Frecuencia m</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t>á</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>xima te</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t>ó</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>rica(Mhz) Vs bits</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6923076923076925</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8823529411764701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4482758620689653</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4390243902439024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0408163265306123</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.639344262295082</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3698630136986301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0309278350515465</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88495575221238942</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4EA8-4C21-A1EF-A8BF3375B903}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="901740479"/>
+        <c:axId val="911928607"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="901740479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="911928607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="911928607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="901740479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1552,6 +2032,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2585,6 +3105,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3179,16 +4215,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3211,6 +4247,45 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFDDFB0A-2CF1-453D-99BC-31566C006D93}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{12894361-C26F-4994-8E12-6C506BC97015}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3516,10 +4591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5108D8E5-A4D4-4D66-9003-DFD7F2E93BC3}">
-  <dimension ref="A2:H14"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3527,7 +4602,34 @@
     <col min="2" max="2" width="9.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3546,8 +4648,20 @@
       <c r="H2" t="s">
         <v>3</v>
       </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3566,8 +4680,22 @@
       <c r="H3">
         <v>9.7449999999999992</v>
       </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <f>3*10*(K3-1)+K3*10</f>
+        <v>50</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <f>(1/L3)*1000</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3586,8 +4714,22 @@
       <c r="H4">
         <v>9.8320000000000007</v>
       </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L14" si="0">3*10*(K4-1)+K4*10</f>
+        <v>130</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O14" si="1">(1/L4)*1000</f>
+        <v>7.6923076923076925</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3606,8 +4748,22 @@
       <c r="H5">
         <v>9.9619999999999997</v>
       </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>5.8823529411764701</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7</v>
       </c>
@@ -3626,8 +4782,22 @@
       <c r="H6">
         <v>9.9420000000000002</v>
       </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8</v>
       </c>
@@ -3646,8 +4816,22 @@
       <c r="H7">
         <v>9.7349999999999994</v>
       </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="N7">
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>3.4482758620689653</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>11</v>
       </c>
@@ -3666,8 +4850,22 @@
       <c r="H8">
         <v>9.7260000000000009</v>
       </c>
+      <c r="K8">
+        <v>11</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
+      <c r="N8">
+        <v>11</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>2.4390243902439024</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>13</v>
       </c>
@@ -3686,8 +4884,22 @@
       <c r="H9">
         <v>9.9160000000000004</v>
       </c>
+      <c r="K9">
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="N9">
+        <v>13</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>2.0408163265306123</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>16</v>
       </c>
@@ -3706,8 +4918,22 @@
       <c r="H10">
         <v>9.67</v>
       </c>
+      <c r="K10">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>610</v>
+      </c>
+      <c r="N10">
+        <v>16</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>1.639344262295082</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>19</v>
       </c>
@@ -3726,8 +4952,22 @@
       <c r="H11">
         <v>9.9440000000000008</v>
       </c>
+      <c r="K11">
+        <v>19</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>730</v>
+      </c>
+      <c r="N11">
+        <v>19</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>1.3698630136986301</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>25</v>
       </c>
@@ -3746,8 +4986,22 @@
       <c r="H12">
         <v>9.8030000000000008</v>
       </c>
+      <c r="K12">
+        <v>25</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>970</v>
+      </c>
+      <c r="N12">
+        <v>25</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>1.0309278350515465</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>29</v>
       </c>
@@ -3766,8 +5020,22 @@
       <c r="H13">
         <v>9.7439999999999998</v>
       </c>
+      <c r="K13">
+        <v>29</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>1130</v>
+      </c>
+      <c r="N13">
+        <v>29</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>0.88495575221238942</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>32</v>
       </c>
@@ -3786,8 +5054,26 @@
       <c r="H14">
         <v>9.7690000000000001</v>
       </c>
+      <c r="K14">
+        <v>32</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="N14">
+        <v>32</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K1:U1"/>
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
